--- a/rubinius_rubinius_sequencing/stats_output.xlsx
+++ b/rubinius_rubinius_sequencing/stats_output.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="24800" windowHeight="18580" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="24880" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="stats.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>CommitCommentEvent</t>
   </si>
@@ -103,6 +104,60 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>2011-06</t>
+  </si>
+  <si>
+    <t>2011-07</t>
+  </si>
+  <si>
+    <t>2011-08</t>
+  </si>
+  <si>
+    <t>2011-09</t>
+  </si>
+  <si>
+    <t>2011-10</t>
+  </si>
+  <si>
+    <t>2011-11</t>
+  </si>
+  <si>
+    <t>2011-12</t>
+  </si>
+  <si>
+    <t>2012-01</t>
+  </si>
+  <si>
+    <t>2012-02</t>
+  </si>
+  <si>
+    <t>2012-03</t>
+  </si>
+  <si>
+    <t>2012-04</t>
+  </si>
+  <si>
+    <t>2012-05</t>
+  </si>
+  <si>
+    <t>2012-06</t>
+  </si>
+  <si>
+    <t>2012-07</t>
+  </si>
+  <si>
+    <t>2012-08</t>
+  </si>
+  <si>
+    <t>2012-09</t>
+  </si>
+  <si>
+    <t>2012-10</t>
+  </si>
+  <si>
+    <t>2012-11</t>
   </si>
 </sst>
 </file>
@@ -165,18 +220,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,11 +660,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="578942776"/>
-        <c:axId val="578846376"/>
+        <c:axId val="579435528"/>
+        <c:axId val="579438648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="578942776"/>
+        <c:axId val="579435528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="578846376"/>
+        <c:crossAx val="579438648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -573,7 +681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="578846376"/>
+        <c:axId val="579438648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,7 +692,713 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="578942776"/>
+        <c:crossAx val="579435528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>stats.csv!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PushEvent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>stats.csv!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>X_2011_06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X_2011_07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X_2011_08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X_2011_09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X_2011_10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X_2011_11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>X_2011_12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>X_2012_01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>X_2012_02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>X_2012_03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>X_2012_04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>X_2012_05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>X_2012_06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>X_2012_07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>X_2012_08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>X_2012_09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>X_2012_10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>X_2012_11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stats.csv!$J$2:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="579501048"/>
+        <c:axId val="579503656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="579501048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="579503656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579503656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="579501048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>stats.csv!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PullRequestEvent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>stats.csv!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>X_2011_06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X_2011_07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X_2011_08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X_2011_09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X_2011_10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X_2011_11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>X_2011_12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>X_2012_01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>X_2012_02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>X_2012_03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>X_2012_04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>X_2012_05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>X_2012_06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>X_2012_07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>X_2012_08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>X_2012_09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>X_2012_10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>X_2012_11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stats.csv!$I$2:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>332.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>312.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>655.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1096.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="579530200"/>
+        <c:axId val="579533144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="579530200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="579533144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579533144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="579530200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>stats.csv!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ForkEvent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>stats.csv!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>X_2011_06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X_2011_07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X_2011_08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X_2011_09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X_2011_10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X_2011_11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>X_2011_12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>X_2012_01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>X_2012_02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>X_2012_03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>X_2012_04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>X_2012_05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>X_2012_06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>X_2012_07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>X_2012_08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>X_2012_09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>X_2012_10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>X_2012_11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stats.csv!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="579563000"/>
+        <c:axId val="579565800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="579563000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="579565800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579565800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="579563000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -633,6 +1447,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2800350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2863850</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2222500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -965,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
-      <selection activeCell="J1" sqref="I1:J19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1731,4 +2635,194 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!B2:B19</xm:f>
+              <xm:sqref>B20</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/rubinius_rubinius_sequencing/stats_output.xlsx
+++ b/rubinius_rubinius_sequencing/stats_output.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="24880" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="20040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="stats.csv" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="pull_requests" sheetId="2" r:id="rId2"/>
+    <sheet name="matrobot_stats" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
   <si>
     <t>CommitCommentEvent</t>
   </si>
@@ -47,60 +48,6 @@
   </si>
   <si>
     <t>PushEvent</t>
-  </si>
-  <si>
-    <t>X_2011_06</t>
-  </si>
-  <si>
-    <t>X_2011_07</t>
-  </si>
-  <si>
-    <t>X_2011_08</t>
-  </si>
-  <si>
-    <t>X_2011_09</t>
-  </si>
-  <si>
-    <t>X_2011_10</t>
-  </si>
-  <si>
-    <t>X_2011_11</t>
-  </si>
-  <si>
-    <t>X_2011_12</t>
-  </si>
-  <si>
-    <t>X_2012_01</t>
-  </si>
-  <si>
-    <t>X_2012_02</t>
-  </si>
-  <si>
-    <t>X_2012_03</t>
-  </si>
-  <si>
-    <t>X_2012_04</t>
-  </si>
-  <si>
-    <t>X_2012_05</t>
-  </si>
-  <si>
-    <t>X_2012_06</t>
-  </si>
-  <si>
-    <t>X_2012_07</t>
-  </si>
-  <si>
-    <t>X_2012_08</t>
-  </si>
-  <si>
-    <t>X_2012_09</t>
-  </si>
-  <si>
-    <t>X_2012_10</t>
-  </si>
-  <si>
-    <t>X_2012_11</t>
   </si>
   <si>
     <t>Total</t>
@@ -159,12 +106,73 @@
   <si>
     <t>2012-11</t>
   </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> push_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> event_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> committer_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fork_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> community_size</t>
+  </si>
+  <si>
+    <t>top500_repository_name</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>monthly_increase</t>
+  </si>
+  <si>
+    <t>monthly_begin_at</t>
+  </si>
+  <si>
+    <t>monthly_end_with</t>
+  </si>
+  <si>
+    <t>rubinius</t>
+  </si>
+  <si>
+    <t>2012-12</t>
+  </si>
+  <si>
+    <t>2013-01</t>
+  </si>
+  <si>
+    <t>Forks</t>
+  </si>
+  <si>
+    <t>Committers/forks</t>
+  </si>
+  <si>
+    <t>community_size/forks</t>
+  </si>
+  <si>
+    <t>pushevents/community_size</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,6 +210,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,43 +235,76 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="60">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -271,6 +319,21 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -285,7 +348,23 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="43" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -660,11 +739,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="579435528"/>
-        <c:axId val="579438648"/>
+        <c:axId val="594105800"/>
+        <c:axId val="591520824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="579435528"/>
+        <c:axId val="594105800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +752,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="579438648"/>
+        <c:crossAx val="591520824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -681,7 +760,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="579438648"/>
+        <c:axId val="591520824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,7 +771,233 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="579435528"/>
+        <c:crossAx val="594105800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>matrobot_stats!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>matrobot_stats!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1224.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>258.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>364.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>294.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1293.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>430.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>498.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>634.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1076.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1502.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>703.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>306.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>529.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>420.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>565.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>475.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>812.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="593471352"/>
+        <c:axId val="593474328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="593471352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="593474328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="593474328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="593471352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -766,58 +1071,58 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>X_2011_06</c:v>
+                  <c:v>2011-06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>X_2011_07</c:v>
+                  <c:v>2011-07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>X_2011_08</c:v>
+                  <c:v>2011-08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>X_2011_09</c:v>
+                  <c:v>2011-09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>X_2011_10</c:v>
+                  <c:v>2011-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>X_2011_11</c:v>
+                  <c:v>2011-11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>X_2011_12</c:v>
+                  <c:v>2011-12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>X_2012_01</c:v>
+                  <c:v>2012-01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>X_2012_02</c:v>
+                  <c:v>2012-02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>X_2012_03</c:v>
+                  <c:v>2012-03</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>X_2012_04</c:v>
+                  <c:v>2012-04</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>X_2012_05</c:v>
+                  <c:v>2012-05</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>X_2012_06</c:v>
+                  <c:v>2012-06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>X_2012_07</c:v>
+                  <c:v>2012-07</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>X_2012_08</c:v>
+                  <c:v>2012-08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>X_2012_09</c:v>
+                  <c:v>2012-09</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>X_2012_10</c:v>
+                  <c:v>2012-10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>X_2012_11</c:v>
+                  <c:v>2012-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -897,11 +1202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="579501048"/>
-        <c:axId val="579503656"/>
+        <c:axId val="591410872"/>
+        <c:axId val="591408456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="579501048"/>
+        <c:axId val="591410872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,7 +1215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="579503656"/>
+        <c:crossAx val="591408456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -918,7 +1223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="579503656"/>
+        <c:axId val="591408456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +1234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="579501048"/>
+        <c:crossAx val="591410872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -998,58 +1303,58 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>X_2011_06</c:v>
+                  <c:v>2011-06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>X_2011_07</c:v>
+                  <c:v>2011-07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>X_2011_08</c:v>
+                  <c:v>2011-08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>X_2011_09</c:v>
+                  <c:v>2011-09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>X_2011_10</c:v>
+                  <c:v>2011-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>X_2011_11</c:v>
+                  <c:v>2011-11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>X_2011_12</c:v>
+                  <c:v>2011-12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>X_2012_01</c:v>
+                  <c:v>2012-01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>X_2012_02</c:v>
+                  <c:v>2012-02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>X_2012_03</c:v>
+                  <c:v>2012-03</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>X_2012_04</c:v>
+                  <c:v>2012-04</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>X_2012_05</c:v>
+                  <c:v>2012-05</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>X_2012_06</c:v>
+                  <c:v>2012-06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>X_2012_07</c:v>
+                  <c:v>2012-07</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>X_2012_08</c:v>
+                  <c:v>2012-08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>X_2012_09</c:v>
+                  <c:v>2012-09</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>X_2012_10</c:v>
+                  <c:v>2012-10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>X_2012_11</c:v>
+                  <c:v>2012-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1129,11 +1434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="579530200"/>
-        <c:axId val="579533144"/>
+        <c:axId val="591443336"/>
+        <c:axId val="591446280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="579530200"/>
+        <c:axId val="591443336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,7 +1447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="579533144"/>
+        <c:crossAx val="591446280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1150,7 +1455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="579533144"/>
+        <c:axId val="591446280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="579530200"/>
+        <c:crossAx val="591443336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1197,11 +1502,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1235,58 +1536,58 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>X_2011_06</c:v>
+                  <c:v>2011-06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>X_2011_07</c:v>
+                  <c:v>2011-07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>X_2011_08</c:v>
+                  <c:v>2011-08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>X_2011_09</c:v>
+                  <c:v>2011-09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>X_2011_10</c:v>
+                  <c:v>2011-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>X_2011_11</c:v>
+                  <c:v>2011-11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>X_2011_12</c:v>
+                  <c:v>2011-12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>X_2012_01</c:v>
+                  <c:v>2012-01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>X_2012_02</c:v>
+                  <c:v>2012-02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>X_2012_03</c:v>
+                  <c:v>2012-03</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>X_2012_04</c:v>
+                  <c:v>2012-04</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>X_2012_05</c:v>
+                  <c:v>2012-05</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>X_2012_06</c:v>
+                  <c:v>2012-06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>X_2012_07</c:v>
+                  <c:v>2012-07</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>X_2012_08</c:v>
+                  <c:v>2012-08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>X_2012_09</c:v>
+                  <c:v>2012-09</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>X_2012_10</c:v>
+                  <c:v>2012-10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>X_2012_11</c:v>
+                  <c:v>2012-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1366,11 +1667,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="579563000"/>
-        <c:axId val="579565800"/>
+        <c:axId val="593683576"/>
+        <c:axId val="593686456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="579563000"/>
+        <c:axId val="593683576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1680,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="579565800"/>
+        <c:crossAx val="593686456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1387,7 +1688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="579565800"/>
+        <c:axId val="593686456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1699,1362 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="579563000"/>
+        <c:crossAx val="593683576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="109"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="9"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PushEvent</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:prstClr val="white"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>stats.csv!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2011-06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011-07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011-08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2011-09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011-11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011-12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012-01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012-02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2012-03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012-04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2012-05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012-06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2012-07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012-08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012-09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012-10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012-11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stats.csv!$J$2:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PullRequestsEvent</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>stats.csv!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2011-06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011-07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011-08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2011-09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011-11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011-12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012-01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012-02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2012-03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012-04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2012-05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012-06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2012-07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012-08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012-09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012-10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012-11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stats.csv!$I$2:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>332.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>312.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>655.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1096.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>IssueEvent</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>stats.csv!$H$2:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="593709496"/>
+        <c:axId val="593712520"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="593709496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="593712520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="593712520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="593709496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>matrobot_stats!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> community_size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>matrobot_stats!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2011-06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011-07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011-08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2011-09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011-11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011-12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012-01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012-02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2012-03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012-04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2012-05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012-06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2012-07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012-08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012-09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012-10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012-11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>matrobot_stats!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>282.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>166.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="593768312"/>
+        <c:axId val="593771016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="593768312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="593771016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="593771016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="593768312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Community</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>matrobot_stats!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2011-06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011-07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011-08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2011-09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011-11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011-12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012-01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012-02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2012-03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012-04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2012-05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012-06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2012-07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012-08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012-09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012-10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012-11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>matrobot_stats!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>282.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>166.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Committers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>matrobot_stats!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines/>
+        <c:axId val="593922616"/>
+        <c:axId val="593925592"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="593922616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="593925592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="593925592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="593922616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="117"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="17"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Relative size of core</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>matrobot_stats!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2011-06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011-07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011-08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2011-09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011-11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011-12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012-01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012-02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2012-03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012-04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2012-05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012-06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2012-07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012-08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012-09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012-10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012-11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>matrobot_stats!$G$2:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.0851063829787234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0864197530864197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.179245283018868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.136842105263158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.305882352941176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.265486725663717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.207920792079208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.258064516129032</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.161290322580645</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.215686274509804</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.292682926829268</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.267605633802817</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19047619047619</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26027397260274</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.188118811881188</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.114457831325301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="592517080"/>
+        <c:axId val="592520024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="592517080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="592520024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="592520024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="592517080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.383347987751531"/>
+          <c:y val="0.234259259259259"/>
+          <c:w val="0.530540901137358"/>
+          <c:h val="0.67154345290172"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>matrobot_stats!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Committers/forks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>matrobot_stats!$I$2:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.260869565217391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0642201834862385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.138686131386861</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0838709677419355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.221276595744681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.115830115830116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0736842105263158</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0794701986754967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0471698113207547</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0621301775147929</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0623229461756374</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0743801652892562</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0655737704918033</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0520547945205479</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0428954423592493</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0503978779840849</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0489690721649484</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0476190476190476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="592468472"/>
+        <c:axId val="592920856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="592468472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="592920856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="592920856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="592468472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1537,6 +3193,191 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1492250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1282700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1867,10 +3708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E19"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1904,12 +3745,12 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>27</v>
@@ -1945,7 +3786,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -1981,7 +3822,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -2016,8 +3857,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>12</v>
+      <c r="A5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2052,8 +3893,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>13</v>
+      <c r="A6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B6">
         <v>37</v>
@@ -2088,8 +3929,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>14</v>
+      <c r="A7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -2124,8 +3965,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>15</v>
+      <c r="A8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -2161,7 +4002,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -2197,7 +4038,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -2232,8 +4073,8 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>18</v>
+      <c r="A11" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2268,8 +4109,8 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>19</v>
+      <c r="A12" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -2304,8 +4145,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>20</v>
+      <c r="A13" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B13">
         <v>61</v>
@@ -2340,8 +4181,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>21</v>
+      <c r="A14" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -2376,8 +4217,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>22</v>
+      <c r="A15" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -2412,8 +4253,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>23</v>
+      <c r="A16" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -2448,8 +4289,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>24</v>
+      <c r="A17" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -2484,8 +4325,8 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>25</v>
+      <c r="A18" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -2520,8 +4361,8 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>26</v>
+      <c r="A19" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B19">
         <v>35</v>
@@ -2556,14 +4397,104 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="137" customHeight="1"/>
+    <row r="50" spans="2:3">
+      <c r="B50">
+        <v>40</v>
+      </c>
+      <c r="C50">
+        <f>B50/$B$53</f>
+        <v>0.25806451612903225</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51">
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:C53" si="1">B51/$B$53</f>
+        <v>0.26451612903225807</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52">
+        <v>74</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>0.47741935483870968</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53">
+        <f>SUM(B50:B52)</f>
+        <v>155</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54">
+        <v>131</v>
+      </c>
+      <c r="C54">
+        <f>B54/$B$57</f>
+        <v>0.44406779661016949</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55">
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:C57" si="2">B55/$B$57</f>
+        <v>0.20338983050847459</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56">
+        <v>104</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>0.35254237288135593</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57">
+        <f>SUM(B54:B56)</f>
+        <v>295</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>stats.csv!K2:K19</xm:f>
+              <xm:sqref>K20</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="5"/>
@@ -2612,22 +4543,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>stats.csv!K2:K19</xm:f>
-              <xm:sqref>K20</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2642,7 +4557,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2654,7 +4569,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>71</v>
@@ -2662,7 +4577,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -2670,7 +4585,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>32</v>
@@ -2678,7 +4593,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -2686,7 +4601,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>332</v>
@@ -2694,7 +4609,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>50</v>
@@ -2702,7 +4617,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>41</v>
@@ -2710,7 +4625,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>40</v>
@@ -2718,7 +4633,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>312</v>
@@ -2726,7 +4641,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>655</v>
@@ -2734,7 +4649,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>1096</v>
@@ -2742,7 +4657,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>161</v>
@@ -2750,7 +4665,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>41</v>
@@ -2758,7 +4673,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>94</v>
@@ -2766,7 +4681,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>54</v>
@@ -2774,7 +4689,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>86</v>
@@ -2782,7 +4697,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>39</v>
@@ -2790,7 +4705,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>60</v>
@@ -2813,7 +4728,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!B2:B19</xm:f>
+              <xm:f>pull_requests!B2:B19</xm:f>
               <xm:sqref>B20</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
@@ -2825,4 +4740,983 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>126</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1224</v>
+      </c>
+      <c r="D2" s="3">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45</v>
+      </c>
+      <c r="F2" s="3">
+        <v>282</v>
+      </c>
+      <c r="G2" s="4">
+        <f>D2/F2</f>
+        <v>8.5106382978723402E-2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H9" si="0">H3-E3</f>
+        <v>92</v>
+      </c>
+      <c r="I2">
+        <f>D2/H2:H19</f>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="J2">
+        <f>F2/H2</f>
+        <v>3.0652173913043477</v>
+      </c>
+      <c r="K2">
+        <f>B2/F2</f>
+        <v>0.44680851063829785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>82</v>
+      </c>
+      <c r="C3" s="3">
+        <v>258</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3">
+        <v>81</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G19" si="1">D3/F3</f>
+        <v>8.6419753086419748E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I19" si="2">D3/H3:H20</f>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J19" si="3">F3/H3</f>
+        <v>0.74311926605504586</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K19" si="4">B3/F3</f>
+        <v>1.0123456790123457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>94</v>
+      </c>
+      <c r="C4" s="3">
+        <v>364</v>
+      </c>
+      <c r="D4" s="3">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3">
+        <v>106</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.17924528301886791</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.13868613138686131</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>0.77372262773722633</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>0.8867924528301887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <v>79</v>
+      </c>
+      <c r="C5" s="3">
+        <v>294</v>
+      </c>
+      <c r="D5" s="3">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3">
+        <v>95</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1368421052631579</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>8.387096774193549E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0.61290322580645162</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>0.83157894736842108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>340</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1293</v>
+      </c>
+      <c r="D6" s="3">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3">
+        <v>80</v>
+      </c>
+      <c r="F6" s="3">
+        <v>170</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.30588235294117649</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.22127659574468084</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0.72340425531914898</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>135</v>
+      </c>
+      <c r="C7" s="3">
+        <v>430</v>
+      </c>
+      <c r="D7" s="3">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3">
+        <v>113</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.26548672566371684</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.11583011583011583</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0.43629343629343631</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>1.1946902654867257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>163</v>
+      </c>
+      <c r="C8">
+        <v>498</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>101</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.20792079207920791</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>7.3684210526315783E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0.35438596491228069</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>1.613861386138614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>185</v>
+      </c>
+      <c r="C9" s="3">
+        <v>512</v>
+      </c>
+      <c r="D9" s="3">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3">
+        <v>93</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>7.9470198675496692E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0.30794701986754969</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>1.989247311827957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>87</v>
+      </c>
+      <c r="C10" s="3">
+        <v>634</v>
+      </c>
+      <c r="D10" s="3">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3">
+        <v>93</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="H10">
+        <f>H11-E11</f>
+        <v>318</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>4.716981132075472E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0.29245283018867924</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0.93548387096774188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3">
+        <v>129</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1076</v>
+      </c>
+      <c r="D11" s="3">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3">
+        <v>96</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.21875</v>
+      </c>
+      <c r="H11">
+        <v>338</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>6.2130177514792898E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0.28402366863905326</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>1.34375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>101</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1502</v>
+      </c>
+      <c r="D12" s="3">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3">
+        <v>102</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.21568627450980393</v>
+      </c>
+      <c r="H12">
+        <v>353</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>6.2322946175637391E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0.28895184135977336</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0.99019607843137258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3">
+        <v>123</v>
+      </c>
+      <c r="C13" s="3">
+        <v>703</v>
+      </c>
+      <c r="D13" s="3">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3">
+        <v>99</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="H13">
+        <v>363</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>7.43801652892562E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>1.2424242424242424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3">
+        <v>306</v>
+      </c>
+      <c r="D14" s="3">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>82</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.29268292682926828</v>
+      </c>
+      <c r="H14">
+        <v>366</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>6.5573770491803282E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0.22404371584699453</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0.90243902439024393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3">
+        <v>529</v>
+      </c>
+      <c r="D15" s="3">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3">
+        <v>71</v>
+      </c>
+      <c r="G15" s="4">
+        <f>D15/F15</f>
+        <v>0.26760563380281688</v>
+      </c>
+      <c r="H15">
+        <v>365</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>5.2054794520547946E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0.19452054794520549</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>1.352112676056338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3">
+        <v>420</v>
+      </c>
+      <c r="D16" s="3">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3">
+        <v>84</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="H16">
+        <v>373</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>4.2895442359249331E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0.22520107238605899</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0.51190476190476186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3">
+        <v>565</v>
+      </c>
+      <c r="D17" s="3">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3">
+        <v>73</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.26027397260273971</v>
+      </c>
+      <c r="H17">
+        <v>377</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>5.0397877984084884E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0.19363395225464192</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0.63013698630136983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3">
+        <v>62</v>
+      </c>
+      <c r="C18" s="3">
+        <v>475</v>
+      </c>
+      <c r="D18" s="3">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3">
+        <v>101</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18811881188118812</v>
+      </c>
+      <c r="H18">
+        <v>388</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>4.8969072164948453E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0.26030927835051548</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0.61386138613861385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3">
+        <v>104</v>
+      </c>
+      <c r="C19" s="3">
+        <v>812</v>
+      </c>
+      <c r="D19" s="3">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3">
+        <v>166</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1144578313253012</v>
+      </c>
+      <c r="H19">
+        <v>399</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0.41604010025062654</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>0.62650602409638556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>332</v>
+      </c>
+      <c r="E27">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>337</v>
+      </c>
+      <c r="E28">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>353</v>
+      </c>
+      <c r="E29">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>363</v>
+      </c>
+      <c r="E30">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>363</v>
+      </c>
+      <c r="E31">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>365</v>
+      </c>
+      <c r="E32">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>370</v>
+      </c>
+      <c r="E33">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>376</v>
+      </c>
+      <c r="E34">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>387</v>
+      </c>
+      <c r="E35">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>400</v>
+      </c>
+      <c r="E36">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>413</v>
+      </c>
+      <c r="E37">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>